--- a/Nuclear_Fuel_Performance/NE533_Spring2022/course_participants.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/course_participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C73907-FB12-F94C-9D04-5CBEDDD95550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8433D769-E09C-9D47-8CF5-B85CBCA0FFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12320" yWindow="7200" windowWidth="21000" windowHeight="11660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="7340" windowWidth="21000" windowHeight="11660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Hamdy Mostafamostafa Abouelella</t>
   </si>
@@ -99,10 +99,16 @@
     <t>Virtual</t>
   </si>
   <si>
-    <t>Feb 3, 2pm</t>
-  </si>
-  <si>
     <t>In person</t>
+  </si>
+  <si>
+    <t>Friday 10:30am</t>
+  </si>
+  <si>
+    <t>Friday 2pm</t>
+  </si>
+  <si>
+    <t>Feb. 10, 2pm</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -513,6 +519,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -522,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -532,6 +541,9 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -540,6 +552,9 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -548,6 +563,9 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -557,7 +575,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/course_participants.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/course_participants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8433D769-E09C-9D47-8CF5-B85CBCA0FFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0808EF7A-9EEC-914E-94E1-8C5843AC929B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="7340" windowWidth="21000" windowHeight="11660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/course_participants.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/course_participants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0808EF7A-9EEC-914E-94E1-8C5843AC929B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126C03A6-BF7C-9F47-95D4-D28736024AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="7340" windowWidth="21000" windowHeight="11660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Hamdy Mostafamostafa Abouelella</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>Feb. 10, 2pm</t>
+  </si>
+  <si>
+    <t>Exam 2</t>
+  </si>
+  <si>
+    <t>Friday 1030am</t>
+  </si>
+  <si>
+    <t>Sat 2pm</t>
   </si>
 </sst>
 </file>
@@ -465,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,7 +488,7 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -489,8 +498,11 @@
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -500,8 +512,11 @@
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -512,7 +527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -522,8 +537,11 @@
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -533,8 +551,11 @@
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -545,7 +566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -556,7 +577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -566,8 +587,11 @@
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -577,8 +601,11 @@
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/course_participants.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/course_participants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126C03A6-BF7C-9F47-95D4-D28736024AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4792BD37-9334-0242-B12F-242F48EFCD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="7340" windowWidth="21000" windowHeight="11660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16600" yWindow="8120" windowWidth="21000" windowHeight="11660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Hamdy Mostafamostafa Abouelella</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Sat 2pm</t>
+  </si>
+  <si>
+    <t>Mon 9am</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,6 +615,9 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/course_participants.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/course_participants.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4792BD37-9334-0242-B12F-242F48EFCD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D6E178-4094-7B43-9A00-CD847109235A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16600" yWindow="8120" windowWidth="21000" windowHeight="11660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Hamdy Mostafamostafa Abouelella</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Mon 9am</t>
+  </si>
+  <si>
+    <t>March 24th</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>830am Sat</t>
   </si>
 </sst>
 </file>
@@ -480,7 +489,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,6 +538,9 @@
       <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -541,7 +553,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -568,6 +580,9 @@
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -578,6 +593,9 @@
       </c>
       <c r="C8" t="s">
         <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">

--- a/Nuclear_Fuel_Performance/NE533_Spring2022/course_participants.xlsx
+++ b/Nuclear_Fuel_Performance/NE533_Spring2022/course_participants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/TEACHING/Nuclear_Fuel_Performance/NE533_Spring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D6E178-4094-7B43-9A00-CD847109235A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE64E811-7407-084B-AFD9-434461C558A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16600" yWindow="8120" windowWidth="21000" windowHeight="11660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="6780" windowWidth="21000" windowHeight="11660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Hamdy Mostafamostafa Abouelella</t>
   </si>
@@ -130,6 +130,27 @@
   </si>
   <si>
     <t>830am Sat</t>
+  </si>
+  <si>
+    <t>Exam 3</t>
+  </si>
+  <si>
+    <t>in person</t>
+  </si>
+  <si>
+    <t>remote</t>
+  </si>
+  <si>
+    <t>fri 1030</t>
+  </si>
+  <si>
+    <t>april 23 3pm</t>
+  </si>
+  <si>
+    <t>april 28 5pm</t>
+  </si>
+  <si>
+    <t>april 29 10am</t>
   </si>
 </sst>
 </file>
@@ -486,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,7 +521,7 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -513,8 +534,11 @@
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -527,8 +551,11 @@
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -541,8 +568,11 @@
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -555,8 +585,11 @@
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -569,8 +602,11 @@
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -583,8 +619,11 @@
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -597,8 +636,11 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -611,8 +653,11 @@
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -625,8 +670,11 @@
       <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
